--- a/Sorting/BubbleSort.xlsx
+++ b/Sorting/BubbleSort.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gostockton-my.sharepoint.com/personal/rosenb26_go_stockton_edu/Documents/DataStructures1/Sorting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryahrybava/Desktop/java/DataStructuresI/Sorting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDACF179-D6B2-4474-BD61-3557214D47D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B1D4794-D12B-4DC9-BCE6-F1F2015CECE7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,7 +92,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -123,7 +125,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
+              <a:rPr lang="en-US" sz="2800" b="1">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -131,14 +133,14 @@
               <a:t>Bubble</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0">
+              <a:rPr lang="en-US" sz="2800" b="1" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t> Sort</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1">
+            <a:endParaRPr lang="en-US" sz="2800" b="1">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -146,6 +148,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -185,7 +188,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -208,7 +211,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -218,38 +221,8 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -258,34 +231,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000</c:v>
+                  <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000</c:v>
+                  <c:v>40000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v>50000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70000</c:v>
+                  <c:v>70000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90000</c:v>
+                  <c:v>90000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,40 +270,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>407</c:v>
+                  <c:v>588.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1484</c:v>
+                  <c:v>2130.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3812</c:v>
+                  <c:v>4707.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7374</c:v>
+                  <c:v>12610.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11591</c:v>
+                  <c:v>14570.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16685</c:v>
+                  <c:v>21869.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22739</c:v>
+                  <c:v>34813.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29258</c:v>
+                  <c:v>43468.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38158</c:v>
+                  <c:v>56638.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45089</c:v>
+                  <c:v>69338.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BC6B-4135-8FCD-4D928F38C188}"/>
             </c:ext>
@@ -344,11 +317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="511605456"/>
-        <c:axId val="498485536"/>
+        <c:axId val="-2089042304"/>
+        <c:axId val="-2130835680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="511605456"/>
+        <c:axId val="-2089042304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +361,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1">
+                  <a:rPr lang="en-US" sz="2400" b="1">
                     <a:solidFill>
                       <a:srgbClr val="00B050"/>
                     </a:solidFill>
@@ -396,14 +369,14 @@
                   <a:t>Array</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                  <a:rPr lang="en-US" sz="2400" b="1" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="00B050"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> Size</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1600" b="1">
+                <a:endParaRPr lang="en-US" sz="2400" b="1">
                   <a:solidFill>
                     <a:srgbClr val="00B050"/>
                   </a:solidFill>
@@ -411,6 +384,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -477,12 +451,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498485536"/>
+        <c:crossAx val="-2130835680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="498485536"/>
+        <c:axId val="-2130835680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +479,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -522,7 +496,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1">
+                  <a:rPr lang="en-US" sz="2000" b="1">
                     <a:solidFill>
                       <a:srgbClr val="00B050"/>
                     </a:solidFill>
@@ -530,14 +504,14 @@
                   <a:t>Time</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                  <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="00B050"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1600" b="1">
+                <a:endParaRPr lang="en-US" sz="2000" b="1">
                   <a:solidFill>
                     <a:srgbClr val="00B050"/>
                   </a:solidFill>
@@ -545,6 +519,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -554,7 +529,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -611,7 +586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511605456"/>
+        <c:crossAx val="-2089042304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -625,14 +600,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1243,7 +1218,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F680847F-FC43-5BF4-C2BA-753FC2B2EAEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F680847F-FC43-5BF4-C2BA-753FC2B2EAEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,96 +1535,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4685735-5565-4C04-B6FE-495579B5F5C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>10000</v>
       </c>
       <c r="B1">
-        <v>407</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20000</v>
       </c>
       <c r="B2">
-        <v>1484</v>
+        <v>2130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30000</v>
       </c>
       <c r="B3">
-        <v>3812</v>
+        <v>4707</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>40000</v>
       </c>
       <c r="B4">
-        <v>7374</v>
+        <v>12610</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50000</v>
       </c>
       <c r="B5">
-        <v>11591</v>
+        <v>14570</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>60000</v>
       </c>
       <c r="B6">
-        <v>16685</v>
+        <v>21869</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>70000</v>
       </c>
       <c r="B7">
-        <v>22739</v>
+        <v>34813</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>80000</v>
       </c>
       <c r="B8">
-        <v>29258</v>
+        <v>43468</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>90000</v>
       </c>
       <c r="B9">
-        <v>38158</v>
+        <v>56638</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100000</v>
       </c>
       <c r="B10">
-        <v>45089</v>
+        <v>69338</v>
       </c>
     </row>
   </sheetData>
